--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="825">
   <si>
     <t>00-00014465</t>
   </si>
@@ -2483,6 +2483,21 @@
   </si>
   <si>
     <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[2]/aside/div/div[1]/table[1]/tbody/tr/td/span[1]</t>
+  </si>
+  <si>
+    <t>https://www.bafus.ru/200100782/</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[1]/div[2]/div/div/div[1]/div/span</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>https://www.bafus.ru/100053549/</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[1]/div[2]/div/div/div[3]/div/span</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -2507,13 +2522,25 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2555,12 +2582,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2589,8 +2617,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
@@ -2899,10 +2935,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L272"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -5398,7 +5434,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="12" t="s">
         <v>354</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -5426,7 +5462,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="12" t="s">
         <v>358</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -6716,16 +6752,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="6" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -6735,7 +6773,7 @@
       <c r="B1" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>811</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -6752,7 +6790,7 @@
       <c r="A2" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>815</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -6768,8 +6806,56 @@
         <v>818</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>822</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313"/>
   </bookViews>
   <sheets>
     <sheet name="Р март 2022" sheetId="1" r:id="rId1"/>
@@ -2588,7 +2588,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2624,6 +2624,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -2937,7 +2940,7 @@
   </sheetPr>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
@@ -5440,7 +5443,7 @@
       <c r="B179" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="15">
         <v>1011</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -5448,7 +5451,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="12" t="s">
         <v>356</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -6754,7 +6757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Р март 2022" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Р март 2022'!$A$1:$D$272</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -2476,28 +2476,28 @@
     <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/header/div/div/div/h1</t>
   </si>
   <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[1]/div[2]/div/div/div[2]/div/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[2]/div[2]/div/div/div[1]/div/span</t>
-  </si>
-  <si>
     <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[2]/aside/div/div[1]/table[1]/tbody/tr/td/span[1]</t>
   </si>
   <si>
     <t>https://www.bafus.ru/200100782/</t>
   </si>
   <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[1]/div[2]/div/div/div[1]/div/span</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>https://www.bafus.ru/100053549/</t>
   </si>
   <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[1]/div[2]/div/div/div[3]/div/span</t>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[5]/div[2]/div/div/div[1]/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[2]/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[1]/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[3]/div/span</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2588,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2627,6 +2627,8 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -2940,7 +2942,7 @@
   </sheetPr>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
@@ -6757,8 +6759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6797,47 +6799,47 @@
         <v>815</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>816</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>820</v>
+      <c r="B3" s="16" t="s">
+        <v>818</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>816</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>823</v>
+      <c r="B4" s="17" t="s">
+        <v>820</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>816</v>
@@ -6846,19 +6848,21 @@
         <v>824</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Р март 2022'!$A$1:$D$272</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="828">
   <si>
     <t>00-00014465</t>
   </si>
@@ -2488,16 +2488,25 @@
     <t>https://www.bafus.ru/100053549/</t>
   </si>
   <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[5]/div[2]/div/div/div[1]/div/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[2]/div/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[1]/div/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[9]/div[2]/div/div/div[3]/div/span</t>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[4]/div/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[2]/div/div[1]/main/div[1]/div[2]/div[1]/div/div/div/section/div/ul/li[5]/div/span</t>
+  </si>
+  <si>
+    <t>//*[@id="bx_117848907_3842"]/div/div[2]/div[2]/div[2]/div[1]/div[1]/div/span/span[2]</t>
+  </si>
+  <si>
+    <t>https://1001kraska.ru/catalog/kraski_i_emali/dlya_vnutrennikh_rabot/kraski_interernye/symphony-simfoniya-euro-balance-evro-balans-7/</t>
+  </si>
+  <si>
+    <t>//*[@id="title"]/div/div/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="bx_117848907_3842"]/div/div[2]/div[2]/div[2]/div[1]/div[3]/div/div/span/span[1]/span[2]/span/span</t>
+  </si>
+  <si>
+    <t>//*[@id="bx_117848907_3842"]/div/div[2]/div[2]/div[2]/div[1]/div[3]/div/div/span/span[2]/span[1]/span</t>
   </si>
 </sst>
 </file>
@@ -2942,8 +2951,8 @@
   </sheetPr>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6757,10 +6766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6805,10 +6814,10 @@
         <v>816</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>822</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -6825,10 +6834,10 @@
         <v>816</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
@@ -6845,14 +6854,34 @@
         <v>816</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
         <v>824</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>819</v>
       </c>
     </row>

--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313"/>
   </bookViews>
   <sheets>
-    <sheet name="Р март 2022" sheetId="1" r:id="rId1"/>
+    <sheet name="Рмарт2022" sheetId="1" r:id="rId1"/>
     <sheet name="BAFUS" sheetId="2" r:id="rId2"/>
+    <sheet name="1001kraska" sheetId="3" r:id="rId3"/>
+    <sheet name="ALBIYA" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Р март 2022'!$A$1:$D$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Рмарт2022!$A$1:$D$272</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="833">
   <si>
     <t>00-00014465</t>
   </si>
@@ -2507,6 +2509,21 @@
   </si>
   <si>
     <t>//*[@id="bx_117848907_3842"]/div/div[2]/div[2]/div[2]/div[1]/div[3]/div/div/span/span[2]/span[1]/span</t>
+  </si>
+  <si>
+    <t>https://www.albia.ru/laki-kraski-morilki-emali-grunty/kraska-na-vodnoy-osnove/kraska-symphony-euro-balance-2-dlya-sten-i-potolkov-metallicheskaya-banka-0-9-l/</t>
+  </si>
+  <si>
+    <t>//*[@id="product-cart"]/div[5]/div[2]/div[1]/span</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[6]/div[1]/div/div/div[2]/div[1]/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="product-cart"]/div[5]/div[2]/div[2]/div/div/div/a[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="features"]/div/div/div[1]/table/tbody/tr[10]/td[2]/span/a/span</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2614,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2638,6 +2655,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -2951,8 +2983,8 @@
   </sheetPr>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6766,10 +6798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6861,27 +6893,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" t="s">
-        <v>824</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="D5" t="s">
-        <v>825</v>
-      </c>
-      <c r="E5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A5" t="s">
         <v>819</v>
       </c>
     </row>
@@ -6894,4 +6906,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="31.83203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="31.83203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PRICE2022.xlsx
+++ b/PRICE2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="313" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Рмарт2022" sheetId="1" r:id="rId1"/>
@@ -2517,13 +2517,13 @@
     <t>//*[@id="product-cart"]/div[5]/div[2]/div[1]/span</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[6]/div[1]/div/div/div[2]/div[1]/h1</t>
-  </si>
-  <si>
     <t>//*[@id="product-cart"]/div[5]/div[2]/div[2]/div/div/div/a[1]/span</t>
   </si>
   <si>
     <t>//*[@id="features"]/div/div/div[1]/table/tbody/tr[10]/td[2]/span/a/span</t>
+  </si>
+  <si>
+    <t>body/div[3]/div[6]/div[1]/div[1]/div[1]/div[2]/div[1]/h1[1]</t>
   </si>
 </sst>
 </file>
@@ -2983,7 +2983,7 @@
   </sheetPr>
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -6976,13 +6976,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="31.83203125" style="18" customWidth="1"/>
+    <col min="1" max="3" width="31.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="51" style="18" customWidth="1"/>
+    <col min="5" max="6" width="31.83203125" style="18" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
@@ -7017,13 +7019,13 @@
         <v>829</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>831</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7032,6 +7034,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>